--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/WISCONSIN_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/WISCONSIN_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1144"/>
+  <dimension ref="A1:D1138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C8">
@@ -654,7 +654,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C21">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C26">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C29">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C41">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C42">
@@ -1005,7 +1005,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C48">
@@ -1322,7 +1322,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C72">
@@ -1426,7 +1426,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C80">
@@ -1439,7 +1439,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C81">
@@ -1491,7 +1491,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C85">
@@ -1652,7 +1652,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C97">
@@ -1787,7 +1787,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C107">
@@ -1813,7 +1813,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1870,7 +1870,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C113">
@@ -1929,7 +1929,7 @@
         <v>76</v>
       </c>
       <c r="D117">
-        <v>0.009236752552260573</v>
+        <v>0.009236752552260571</v>
       </c>
     </row>
     <row r="118">
@@ -1955,7 +1955,7 @@
         <v>76</v>
       </c>
       <c r="D119">
-        <v>0.009236752552260573</v>
+        <v>0.009236752552260571</v>
       </c>
     </row>
     <row r="120">
@@ -2057,7 +2057,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C127">
@@ -2226,7 +2226,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C140">
@@ -2343,7 +2343,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C149">
@@ -2447,12 +2447,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C157">
@@ -2491,7 +2491,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C160">
@@ -2504,7 +2504,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C161">
@@ -2582,7 +2582,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C167">
@@ -2634,7 +2634,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C171">
@@ -2660,7 +2660,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C173">
@@ -2725,7 +2725,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C178">
@@ -2777,7 +2777,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C182">
@@ -2894,7 +2894,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C191">
@@ -2972,7 +2972,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C197">
@@ -2985,7 +2985,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C198">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C212">
@@ -3232,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C217">
@@ -3245,7 +3245,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C218">
@@ -3367,7 +3367,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C227">
@@ -3380,7 +3380,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C228">
@@ -3393,7 +3393,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C229">
@@ -3471,7 +3471,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C235">
@@ -3523,7 +3523,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C239">
@@ -3614,7 +3614,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C246">
@@ -3666,7 +3666,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C250">
@@ -3692,7 +3692,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C252">
@@ -3718,7 +3718,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C254">
@@ -3744,7 +3744,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C256">
@@ -3770,7 +3770,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C258">
@@ -3822,7 +3822,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C262">
@@ -3905,7 +3905,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C268">
@@ -3931,7 +3931,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C270">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C274">
@@ -3996,7 +3996,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C275">
@@ -4022,7 +4022,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C277">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C278">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C279">
@@ -4061,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C280">
@@ -4113,7 +4113,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C284">
@@ -4126,7 +4126,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C285">
@@ -4165,7 +4165,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C288">
@@ -4178,7 +4178,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C289">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C294">
@@ -4256,7 +4256,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C295">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C296">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C297">
@@ -4464,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C311">
@@ -4490,7 +4490,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C313">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C315">
@@ -4542,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C317">
@@ -4581,7 +4581,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C320">
@@ -4742,7 +4742,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C332">
@@ -4781,7 +4781,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C335">
@@ -4833,7 +4833,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C339">
@@ -4872,7 +4872,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C342">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C347">
@@ -4976,7 +4976,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C350">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C352">
@@ -5028,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C354">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C355">
@@ -5106,7 +5106,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C360">
@@ -5119,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C361">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C363">
@@ -5158,7 +5158,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C364">
@@ -5215,7 +5215,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C368">
@@ -5267,7 +5267,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C372">
@@ -5280,7 +5280,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C373">
@@ -5293,7 +5293,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C374">
@@ -5488,7 +5488,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C389">
@@ -5527,7 +5527,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C392">
@@ -5540,7 +5540,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C393">
@@ -5618,7 +5618,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C399">
@@ -5748,7 +5748,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C409">
@@ -5761,7 +5761,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C410">
@@ -5787,7 +5787,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C412">
@@ -5813,7 +5813,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C414">
@@ -5826,7 +5826,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C415">
@@ -5865,7 +5865,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C418">
@@ -5917,7 +5917,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C422">
@@ -5982,7 +5982,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C427">
@@ -5995,7 +5995,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C428">
@@ -6047,7 +6047,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C432">
@@ -6060,7 +6060,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C433">
@@ -6099,7 +6099,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C436">
@@ -6112,7 +6112,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C437">
@@ -7305,7 +7305,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C528">
@@ -7344,7 +7344,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C531">
@@ -7396,7 +7396,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C535">
@@ -7518,7 +7518,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C544">
@@ -7557,7 +7557,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C547">
@@ -7609,7 +7609,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C551">
@@ -7822,7 +7822,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C567">
@@ -7879,7 +7879,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C571">
@@ -7931,7 +7931,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C575">
@@ -7957,7 +7957,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C577">
@@ -7996,7 +7996,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C580">
@@ -8022,7 +8022,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C582">
@@ -8035,7 +8035,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C583">
@@ -8048,7 +8048,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C584">
@@ -8061,7 +8061,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C585">
@@ -8074,7 +8074,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C586">
@@ -8100,7 +8100,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C588">
@@ -8113,7 +8113,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C589">
@@ -8191,7 +8191,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C595">
@@ -8204,7 +8204,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C596">
@@ -8243,7 +8243,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C599">
@@ -8256,7 +8256,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C600">
@@ -8269,7 +8269,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C601">
@@ -8282,7 +8282,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C602">
@@ -8308,7 +8308,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C604">
@@ -8321,7 +8321,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C605">
@@ -8438,7 +8438,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C614">
@@ -8503,7 +8503,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C619">
@@ -9036,7 +9036,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C660">
@@ -9179,7 +9179,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C671">
@@ -9192,7 +9192,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C672">
@@ -9361,7 +9361,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C685">
@@ -9387,7 +9387,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C687">
@@ -9413,7 +9413,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C689">
@@ -9855,7 +9855,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C723">
@@ -9946,7 +9946,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C730">
@@ -9959,7 +9959,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C731">
@@ -9972,7 +9972,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C732">
@@ -9985,7 +9985,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C733">
@@ -9998,7 +9998,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C734">
@@ -10011,7 +10011,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C735">
@@ -10024,7 +10024,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C736">
@@ -10050,7 +10050,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C738">
@@ -10063,7 +10063,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C739">
@@ -10076,7 +10076,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Yutanduchi de Guerrero</t>
+          <t>Yutanduchi De Guerrero</t>
         </is>
       </c>
       <c r="C740">
@@ -10089,7 +10089,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C741">
@@ -10128,7 +10128,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C744">
@@ -10315,7 +10315,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C758">
@@ -10341,7 +10341,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C760">
@@ -10419,7 +10419,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C766">
@@ -10575,7 +10575,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C778">
@@ -10588,7 +10588,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C779">
@@ -10666,7 +10666,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C785">
@@ -10809,7 +10809,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C796">
@@ -11030,7 +11030,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C813">
@@ -11095,7 +11095,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C818">
@@ -11160,7 +11160,7 @@
     <row r="823">
       <c r="B823" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C823">
@@ -11173,7 +11173,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C824">
@@ -11212,7 +11212,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C827">
@@ -11477,7 +11477,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C847">
@@ -11542,7 +11542,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C852">
@@ -11594,7 +11594,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C856">
@@ -11760,7 +11760,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C868">
@@ -11903,7 +11903,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C879">
@@ -11942,7 +11942,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C882">
@@ -11955,7 +11955,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C883">
@@ -12638,7 +12638,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C934">
@@ -12736,7 +12736,7 @@
         <v>78</v>
       </c>
       <c r="D941">
-        <v>0.009479824987846379</v>
+        <v>0.009479824987846381</v>
       </c>
     </row>
     <row r="942">
@@ -12799,7 +12799,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C946">
@@ -12877,7 +12877,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C952">
@@ -12890,7 +12890,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C953">
@@ -13064,7 +13064,7 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C966">
@@ -13168,7 +13168,7 @@
     <row r="974">
       <c r="B974" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C974">
@@ -13194,7 +13194,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C976">
@@ -13376,7 +13376,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C990">
@@ -13389,7 +13389,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C991">
@@ -13532,7 +13532,7 @@
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1002">
@@ -13545,7 +13545,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1003">
@@ -13584,7 +13584,7 @@
     <row r="1006">
       <c r="B1006" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1006">
@@ -13597,7 +13597,7 @@
     <row r="1007">
       <c r="B1007" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1007">
@@ -13610,7 +13610,7 @@
     <row r="1008">
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1008">
@@ -13727,7 +13727,7 @@
     <row r="1017">
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1017">
@@ -13766,7 +13766,7 @@
     <row r="1020">
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1020">
@@ -13792,7 +13792,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1022">
@@ -13818,7 +13818,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1024">
@@ -13831,7 +13831,7 @@
     <row r="1025">
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1025">
@@ -13883,7 +13883,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1029">
@@ -14013,7 +14013,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1039">
@@ -14052,7 +14052,7 @@
     <row r="1042">
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1042">
@@ -14065,7 +14065,7 @@
     <row r="1043">
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1043">
@@ -14104,7 +14104,7 @@
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1046">
@@ -14176,13 +14176,13 @@
         <v>78</v>
       </c>
       <c r="D1051">
-        <v>0.009479824987846379</v>
+        <v>0.009479824987846381</v>
       </c>
     </row>
     <row r="1052">
       <c r="B1052" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1052">
@@ -14208,7 +14208,7 @@
     <row r="1054">
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1054">
@@ -14520,7 +14520,7 @@
     <row r="1078">
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1078">
@@ -14777,7 +14777,7 @@
     <row r="1097">
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1097">
@@ -14803,7 +14803,7 @@
     <row r="1099">
       <c r="B1099" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1099">
@@ -14907,7 +14907,7 @@
     <row r="1107">
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1107">
@@ -15024,7 +15024,7 @@
     <row r="1116">
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1116">
@@ -15037,7 +15037,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1117">
@@ -15141,7 +15141,7 @@
     <row r="1125">
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1125">
@@ -15154,7 +15154,7 @@
     <row r="1126">
       <c r="B1126" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1126">
@@ -15180,7 +15180,7 @@
     <row r="1128">
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1128">
@@ -15219,7 +15219,7 @@
     <row r="1131">
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1131">
@@ -15318,41 +15318,6 @@
       </c>
       <c r="D1138">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1140">
-      <c r="A1140" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1141">
-      <c r="A1141" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1142">
-      <c r="A1142" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1143">
-      <c r="A1143" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1144">
-      <c r="A1144" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
       </c>
     </row>
   </sheetData>
